--- a/I-V/I-V.xlsx
+++ b/I-V/I-V.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tex\General Physics Lab\I-V\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\GeneralPhysicsLab\I-V\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7600" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="R1" sheetId="1" r:id="rId1"/>
     <sheet name="R2" sheetId="2" r:id="rId2"/>
     <sheet name="稳压" sheetId="3" r:id="rId3"/>
+    <sheet name="R1Chart" sheetId="6" r:id="rId4"/>
+    <sheet name="R2Chart" sheetId="7" r:id="rId5"/>
+    <sheet name="稳压chart" sheetId="5" r:id="rId6"/>
+    <sheet name="稳压段放大" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,6 +28,19 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>U/V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -143,6 +161,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -153,6 +174,5230 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="0" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>稳压!$A$27:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.49759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52449999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56430000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64449999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67320000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69610000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71330000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.74350000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76239999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7883</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79490000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>稳压!$B$27:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.9500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2300000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6209999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.743E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6290000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13780999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19633999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58020000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.508</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.9539999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ECF0-4C7F-9ED8-25376D72010D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="28830287"/>
+        <c:axId val="28834863"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="28830287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>标题</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28834863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="28834863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>标题</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28830287"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.9616169960023886E-2"/>
+          <c:y val="1.2587180581417659E-2"/>
+          <c:w val="0.9439603880154227"/>
+          <c:h val="0.93170059537033989"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="0" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+                      <a:t>y = 24.443x + 0.0786</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+                      <a:t>R² = 0.9999</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'R1'!$A$1:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'R1'!$B$1:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B17E-4174-8E60-852C0391BDC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="28830287"/>
+        <c:axId val="28834863"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="28830287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>U/V</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28834863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="28834863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>I/mA</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28830287"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3726236775855057E-2"/>
+          <c:y val="1.2587180581417659E-2"/>
+          <c:w val="0.93535295808586461"/>
+          <c:h val="0.93110714636541592"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1250" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>y = 0.9734x - 0.0034</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>R² = 0.9999</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1600"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1250" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'R2'!$A$1:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'R2'!$B$1:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7959999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B90-48A5-86FA-C07FA6D31F0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="28830287"/>
+        <c:axId val="28834863"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="28830287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1250" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>U/V</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1250" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1250" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28834863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="28834863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1250" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>I/mA</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1250" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1250" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28830287"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1250"/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.4863637552074753E-2"/>
+          <c:y val="1.2512522206404699E-2"/>
+          <c:w val="0.97427021831220928"/>
+          <c:h val="0.97497495558719061"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>稳压!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I/mA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:marker>
+              <c:symbol val="star"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:tint val="88500"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="3810" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-8435-48EE-A6DC-44CEF449E614}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>稳压!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-5.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.5250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.5170000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.5149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.5129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.5110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.5090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.5069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.5019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.4960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5.492</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.4870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.4829999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.4790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.4690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5.4619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.4530000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.4189999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.7890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.49759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52449999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.56430000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.61409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.64449999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.65920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.67320000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.69610000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.71330000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.72919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.74350000000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.76239999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.7883</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.79490000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.80740000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>稳压!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-19.488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15.866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-13.704000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-11.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.444000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.8949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.7929999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.4179999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.1940000000000008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.5439999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.1440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.6429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.2309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.234</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.4352</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.97419999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.56589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.36659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.2366</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.18079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.1017</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.4000000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.9500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.2300000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6209999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.743E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.6290000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.13780999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.19633999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.36009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.58020000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3989</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.4849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.508</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.7519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.9539999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ECF0-4C7F-9ED8-25376D72010D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="28830287"/>
+        <c:axId val="28834863"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="28830287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>U/V</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28834863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.25"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="28834863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="11"/>
+          <c:min val="-20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>I/mA</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28830287"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2315795120947099E-2"/>
+          <c:y val="2.5793183907932334E-2"/>
+          <c:w val="0.94055510351307714"/>
+          <c:h val="0.96161957185617486"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="3810" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5.000000000000001E-3"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>稳压!$A$2:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>-5.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.5250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.5170000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.5149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.5129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.5110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.5090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.5069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.5019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.4960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5.492</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.4870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.4829999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.4790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.4690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5.4619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.4530000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.4189999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>稳压!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>-19.488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15.866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-13.704000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-11.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.444000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.8949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.7929999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.4179999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.1940000000000008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.5439999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.1440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.6429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.2309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.234</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.4352</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.97419999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.56589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.36659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.2366</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.18079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.1017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-377B-4344-B5BB-82928958B022}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="28830287"/>
+        <c:axId val="28834863"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="28830287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-5.41"/>
+          <c:min val="-5.5500000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>U/V</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="1200000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28834863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="28834863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>I/mA</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="1800000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28830287"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="32767" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>199048</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>155086</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>83283</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="10512778" cy="7390694"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="10512778" cy="7390694"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="10565694" cy="7434792"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="10512778" cy="7390694"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,12 +5661,1020 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="BCF5E0"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="BCF5E0"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="BCF5E0"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride4.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="BCF5E0"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -480,6 +6733,14 @@
       </c>
       <c r="B7">
         <v>13.69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -491,10 +6752,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -553,6 +6814,14 @@
       </c>
       <c r="B7">
         <v>2.7959999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -563,344 +6832,367 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A19" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>-5.54</v>
-      </c>
-      <c r="B1">
-        <v>-19.488</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-5.53</v>
+        <v>-5.54</v>
       </c>
       <c r="B2">
-        <v>-15.866</v>
+        <v>-19.488</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-5.5250000000000004</v>
+        <v>-5.53</v>
       </c>
       <c r="B3">
-        <v>-13.704000000000001</v>
+        <v>-15.866</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-5.5170000000000003</v>
+        <v>-5.5250000000000004</v>
       </c>
       <c r="B4">
-        <v>-11.07</v>
+        <v>-13.704000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-5.5149999999999997</v>
+        <v>-5.5170000000000003</v>
       </c>
       <c r="B5">
-        <v>-10.444000000000001</v>
+        <v>-11.07</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>-5.5129999999999999</v>
+        <v>-5.5149999999999997</v>
       </c>
       <c r="B6">
-        <v>-10</v>
+        <v>-10.444000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>-5.5110000000000001</v>
+        <v>-5.5129999999999999</v>
       </c>
       <c r="B7">
-        <v>-9.8949999999999996</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>-5.5090000000000003</v>
+        <v>-5.5110000000000001</v>
       </c>
       <c r="B8">
-        <v>-9.7929999999999993</v>
+        <v>-9.8949999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>-5.5069999999999997</v>
+        <v>-5.5090000000000003</v>
       </c>
       <c r="B9">
-        <v>-9.4179999999999993</v>
+        <v>-9.7929999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>-5.5019999999999998</v>
+        <v>-5.5069999999999997</v>
       </c>
       <c r="B10">
-        <v>-8.1940000000000008</v>
+        <v>-9.4179999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>-5.5</v>
+        <v>-5.5019999999999998</v>
       </c>
       <c r="B11">
-        <v>-7.5439999999999996</v>
+        <v>-8.1940000000000008</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-5.4960000000000004</v>
+        <v>-5.5</v>
       </c>
       <c r="B12">
-        <v>-6.1440000000000001</v>
+        <v>-7.5439999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>-5.492</v>
+        <v>-5.4960000000000004</v>
       </c>
       <c r="B13">
-        <v>-4.6429999999999998</v>
+        <v>-6.1440000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-5.4870000000000001</v>
+        <v>-5.492</v>
       </c>
       <c r="B14">
-        <v>-3.2309999999999999</v>
+        <v>-4.6429999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>-5.4829999999999997</v>
+        <v>-5.4870000000000001</v>
       </c>
       <c r="B15">
-        <v>-2.234</v>
+        <v>-3.2309999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>-5.4790000000000001</v>
+        <v>-5.4829999999999997</v>
       </c>
       <c r="B16">
-        <v>-1.4352</v>
+        <v>-2.234</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>-5.476</v>
+        <v>-5.4790000000000001</v>
       </c>
       <c r="B17">
-        <v>-0.97419999999999995</v>
+        <v>-1.4352</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>-5.4720000000000004</v>
+        <v>-5.476</v>
       </c>
       <c r="B18">
-        <v>-0.56589999999999996</v>
+        <v>-0.97419999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>-5.4690000000000003</v>
+        <v>-5.4720000000000004</v>
       </c>
       <c r="B19">
-        <v>-0.36659999999999998</v>
+        <v>-0.56589999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>-5.4619999999999997</v>
+        <v>-5.4690000000000003</v>
       </c>
       <c r="B20">
-        <v>-0.2366</v>
+        <v>-0.36659999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>-5.4530000000000003</v>
+        <v>-5.4619999999999997</v>
       </c>
       <c r="B21">
-        <v>-0.18079999999999999</v>
+        <v>-0.2366</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>-5.4189999999999996</v>
+        <v>-5.4530000000000003</v>
       </c>
       <c r="B22">
-        <v>-0.1017</v>
+        <v>-0.18079999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>-4</v>
+        <v>-5.4189999999999996</v>
       </c>
       <c r="B23">
-        <v>-1.9499999999999999E-3</v>
+        <v>-0.1017</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>-2.7890000000000001</v>
+        <v>-4</v>
       </c>
       <c r="B24">
-        <v>-6.4000000000000005E-4</v>
+        <v>-1.9499999999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0</v>
+        <v>-2.7890000000000001</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>-6.4000000000000005E-4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.49759999999999999</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>3.9500000000000004E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.52449999999999997</v>
+        <v>0.49759999999999999</v>
       </c>
       <c r="B27">
-        <v>7.2300000000000003E-3</v>
+        <v>3.9500000000000004E-3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.56430000000000002</v>
+        <v>0.52449999999999997</v>
       </c>
       <c r="B28">
-        <v>1.6209999999999999E-2</v>
+        <v>7.2300000000000003E-3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.61409999999999998</v>
+        <v>0.56430000000000002</v>
       </c>
       <c r="B29">
-        <v>4.743E-2</v>
+        <v>1.6209999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.64449999999999996</v>
+        <v>0.61409999999999998</v>
       </c>
       <c r="B30">
-        <v>9.6290000000000001E-2</v>
+        <v>4.743E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0.65920000000000001</v>
+        <v>0.64449999999999996</v>
       </c>
       <c r="B31">
-        <v>0.13780999999999999</v>
+        <v>9.6290000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.67320000000000002</v>
+        <v>0.65920000000000001</v>
       </c>
       <c r="B32">
-        <v>0.19633999999999999</v>
+        <v>0.13780999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.69610000000000005</v>
+        <v>0.67320000000000002</v>
       </c>
       <c r="B33">
-        <v>0.36009999999999998</v>
+        <v>0.19633999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.71330000000000005</v>
+        <v>0.69610000000000005</v>
       </c>
       <c r="B34">
-        <v>0.58020000000000005</v>
+        <v>0.36009999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.72919999999999996</v>
+        <v>0.71330000000000005</v>
       </c>
       <c r="B35">
-        <v>0.91700000000000004</v>
+        <v>0.58020000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.74350000000000005</v>
+        <v>0.72919999999999996</v>
       </c>
       <c r="B36">
-        <v>1.3989</v>
+        <v>0.91700000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.76239999999999997</v>
+        <v>0.74350000000000005</v>
       </c>
       <c r="B37">
-        <v>2.4849999999999999</v>
+        <v>1.3989</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.7883</v>
+        <v>0.76239999999999997</v>
       </c>
       <c r="B38">
-        <v>5.508</v>
+        <v>2.4849999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.79490000000000005</v>
+        <v>0.7883</v>
       </c>
       <c r="B39">
-        <v>6.7519999999999998</v>
+        <v>5.508</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.8</v>
+        <v>0.79490000000000005</v>
       </c>
       <c r="B40">
-        <v>7.9539999999999997</v>
+        <v>6.7519999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
+        <v>0.8</v>
+      </c>
+      <c r="B41">
+        <v>7.9539999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>0.80740000000000001</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>10.06</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>